--- a/natmiOut/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H2">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I2">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J2">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.532535146033741</v>
+        <v>0.448495</v>
       </c>
       <c r="N2">
-        <v>0.532535146033741</v>
+        <v>1.345485</v>
       </c>
       <c r="O2">
-        <v>0.06416817252238388</v>
+        <v>0.05033609585745587</v>
       </c>
       <c r="P2">
-        <v>0.06416817252238388</v>
+        <v>0.05033609585745586</v>
       </c>
       <c r="Q2">
-        <v>7.399556205469927</v>
+        <v>12.03681854177667</v>
       </c>
       <c r="R2">
-        <v>7.399556205469927</v>
+        <v>108.33136687599</v>
       </c>
       <c r="S2">
-        <v>0.05241455355360773</v>
+        <v>0.04471179741157889</v>
       </c>
       <c r="T2">
-        <v>0.05241455355360773</v>
+        <v>0.04471179741157889</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.8949631035265</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H3">
-        <v>13.8949631035265</v>
+        <v>80.514734</v>
       </c>
       <c r="I3">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J3">
-        <v>0.816831015957699</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.766519121843</v>
+        <v>0.6116653333333333</v>
       </c>
       <c r="N3">
-        <v>7.766519121843</v>
+        <v>1.834996</v>
       </c>
       <c r="O3">
-        <v>0.9358318274776162</v>
+        <v>0.06864924882406573</v>
       </c>
       <c r="P3">
-        <v>0.9358318274776162</v>
+        <v>0.06864924882406571</v>
       </c>
       <c r="Q3">
-        <v>107.9154966408415</v>
+        <v>16.41602387011822</v>
       </c>
       <c r="R3">
-        <v>107.9154966408415</v>
+        <v>147.744214831064</v>
       </c>
       <c r="S3">
-        <v>0.7644164624040913</v>
+        <v>0.06097873213232225</v>
       </c>
       <c r="T3">
-        <v>0.7644164624040913</v>
+        <v>0.06097873213232224</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.22019130026345</v>
+        <v>26.83824466666667</v>
       </c>
       <c r="H4">
-        <v>1.22019130026345</v>
+        <v>80.514734</v>
       </c>
       <c r="I4">
-        <v>0.0717303163765856</v>
+        <v>0.8882651037973995</v>
       </c>
       <c r="J4">
-        <v>0.0717303163765856</v>
+        <v>0.8882651037973996</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.532535146033741</v>
+        <v>7.849847333333334</v>
       </c>
       <c r="N4">
-        <v>0.532535146033741</v>
+        <v>23.549542</v>
       </c>
       <c r="O4">
-        <v>0.06416817252238388</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="P4">
-        <v>0.06416817252238388</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="Q4">
-        <v>0.6497947522748966</v>
+        <v>210.6761233279809</v>
       </c>
       <c r="R4">
-        <v>0.6497947522748966</v>
+        <v>1896.085109951828</v>
       </c>
       <c r="S4">
-        <v>0.004602803316337923</v>
+        <v>0.7825745742534984</v>
       </c>
       <c r="T4">
-        <v>0.004602803316337923</v>
+        <v>0.7825745742534985</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.22019130026345</v>
+        <v>1.239011</v>
       </c>
       <c r="H5">
-        <v>1.22019130026345</v>
+        <v>3.717033</v>
       </c>
       <c r="I5">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J5">
-        <v>0.0717303163765856</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>7.766519121843</v>
+        <v>0.448495</v>
       </c>
       <c r="N5">
-        <v>7.766519121843</v>
+        <v>1.345485</v>
       </c>
       <c r="O5">
-        <v>0.9358318274776162</v>
+        <v>0.05033609585745587</v>
       </c>
       <c r="P5">
-        <v>0.9358318274776162</v>
+        <v>0.05033609585745586</v>
       </c>
       <c r="Q5">
-        <v>9.476639065802559</v>
+        <v>0.555690238445</v>
       </c>
       <c r="R5">
-        <v>9.476639065802559</v>
+        <v>5.001212146005</v>
       </c>
       <c r="S5">
-        <v>0.06712751306024768</v>
+        <v>0.002064159169527323</v>
       </c>
       <c r="T5">
-        <v>0.06712751306024768</v>
+        <v>0.002064159169527323</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.89566280573442</v>
+        <v>1.239011</v>
       </c>
       <c r="H6">
-        <v>1.89566280573442</v>
+        <v>3.717033</v>
       </c>
       <c r="I6">
-        <v>0.1114386676657155</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J6">
-        <v>0.1114386676657155</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.532535146033741</v>
+        <v>0.6116653333333333</v>
       </c>
       <c r="N6">
-        <v>0.532535146033741</v>
+        <v>1.834996</v>
       </c>
       <c r="O6">
-        <v>0.06416817252238388</v>
+        <v>0.06864924882406573</v>
       </c>
       <c r="P6">
-        <v>0.06416817252238388</v>
+        <v>0.06864924882406571</v>
       </c>
       <c r="Q6">
-        <v>1.009507069082511</v>
+        <v>0.7578600763186665</v>
       </c>
       <c r="R6">
-        <v>1.009507069082511</v>
+        <v>6.820740686867999</v>
       </c>
       <c r="S6">
-        <v>0.007150815652438235</v>
+        <v>0.00281513641508152</v>
       </c>
       <c r="T6">
-        <v>0.007150815652438235</v>
+        <v>0.00281513641508152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.89566280573442</v>
+        <v>1.239011</v>
       </c>
       <c r="H7">
-        <v>1.89566280573442</v>
+        <v>3.717033</v>
       </c>
       <c r="I7">
-        <v>0.1114386676657155</v>
+        <v>0.04100753414354395</v>
       </c>
       <c r="J7">
-        <v>0.1114386676657155</v>
+        <v>0.04100753414354396</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.766519121843</v>
+        <v>7.849847333333334</v>
       </c>
       <c r="N7">
-        <v>7.766519121843</v>
+        <v>23.549542</v>
       </c>
       <c r="O7">
-        <v>0.9358318274776162</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="P7">
-        <v>0.9358318274776162</v>
+        <v>0.8810146553184784</v>
       </c>
       <c r="Q7">
-        <v>14.72270142930293</v>
+        <v>9.726047194320666</v>
       </c>
       <c r="R7">
-        <v>14.72270142930293</v>
+        <v>87.53442474888601</v>
       </c>
       <c r="S7">
-        <v>0.1042878520132773</v>
+        <v>0.03612823855893511</v>
       </c>
       <c r="T7">
-        <v>0.1042878520132773</v>
+        <v>0.03612823855893512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.136972666666667</v>
+      </c>
+      <c r="H8">
+        <v>6.410918000000001</v>
+      </c>
+      <c r="I8">
+        <v>0.07072736205905639</v>
+      </c>
+      <c r="J8">
+        <v>0.0707273620590564</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.448495</v>
+      </c>
+      <c r="N8">
+        <v>1.345485</v>
+      </c>
+      <c r="O8">
+        <v>0.05033609585745587</v>
+      </c>
+      <c r="P8">
+        <v>0.05033609585745586</v>
+      </c>
+      <c r="Q8">
+        <v>0.9584215561366668</v>
+      </c>
+      <c r="R8">
+        <v>8.62579400523</v>
+      </c>
+      <c r="S8">
+        <v>0.00356013927634965</v>
+      </c>
+      <c r="T8">
+        <v>0.00356013927634965</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.136972666666667</v>
+      </c>
+      <c r="H9">
+        <v>6.410918000000001</v>
+      </c>
+      <c r="I9">
+        <v>0.07072736205905639</v>
+      </c>
+      <c r="J9">
+        <v>0.0707273620590564</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6116653333333333</v>
+      </c>
+      <c r="N9">
+        <v>1.834996</v>
+      </c>
+      <c r="O9">
+        <v>0.06864924882406573</v>
+      </c>
+      <c r="P9">
+        <v>0.06864924882406571</v>
+      </c>
+      <c r="Q9">
+        <v>1.307112098480889</v>
+      </c>
+      <c r="R9">
+        <v>11.764008886328</v>
+      </c>
+      <c r="S9">
+        <v>0.004855380276661948</v>
+      </c>
+      <c r="T9">
+        <v>0.004855380276661948</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.136972666666667</v>
+      </c>
+      <c r="H10">
+        <v>6.410918000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.07072736205905639</v>
+      </c>
+      <c r="J10">
+        <v>0.0707273620590564</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>7.849847333333334</v>
+      </c>
+      <c r="N10">
+        <v>23.549542</v>
+      </c>
+      <c r="O10">
+        <v>0.8810146553184784</v>
+      </c>
+      <c r="P10">
+        <v>0.8810146553184784</v>
+      </c>
+      <c r="Q10">
+        <v>16.77490918883956</v>
+      </c>
+      <c r="R10">
+        <v>150.974182699556</v>
+      </c>
+      <c r="S10">
+        <v>0.0623118425060448</v>
+      </c>
+      <c r="T10">
+        <v>0.0623118425060448</v>
       </c>
     </row>
   </sheetData>
